--- a/项目/帆软/541/智能装备.xlsx
+++ b/项目/帆软/541/智能装备.xlsx
@@ -1,11 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23426"/>
-  <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9A24CC9-F212-409B-92DF-BB17A5FE9BCA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -30,18 +29,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>张三</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>李四</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>王五</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>刘瑞</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -146,13 +133,25 @@
   </si>
   <si>
     <t>智能装备产业企业新增</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>张其</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>李瑞</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>王散人</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -198,74 +197,6 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -285,7 +216,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="CCE8CF"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -539,11 +470,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -559,16 +490,16 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C1" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D1" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="E1" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="F1" t="s">
         <v>1</v>
@@ -576,262 +507,262 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B2">
-        <v>52</v>
+        <v>5</v>
       </c>
       <c r="C2">
         <v>2</v>
       </c>
       <c r="D2">
-        <v>33</v>
+        <v>1.7</v>
       </c>
       <c r="E2" s="1">
         <v>1.2</v>
       </c>
       <c r="F2" t="s">
-        <v>2</v>
+        <v>29</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B3">
-        <v>66</v>
+        <v>3</v>
       </c>
       <c r="C3">
         <v>1</v>
       </c>
       <c r="D3">
-        <v>45</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="E3" s="1">
         <v>0.9</v>
       </c>
       <c r="F3" t="s">
-        <v>3</v>
+        <v>30</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B4">
-        <v>37</v>
+        <v>5</v>
       </c>
       <c r="C4">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D4">
-        <v>21</v>
+        <v>1.3</v>
       </c>
       <c r="E4" s="1">
         <v>0.81</v>
       </c>
       <c r="F4" t="s">
-        <v>4</v>
+        <v>31</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B5">
-        <v>45</v>
+        <v>2</v>
       </c>
       <c r="C5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D5">
-        <v>30</v>
+        <v>0.92</v>
       </c>
       <c r="E5" s="1">
         <v>0.6</v>
       </c>
       <c r="F5" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B6">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="C6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D6">
-        <v>15</v>
+        <v>0.7</v>
       </c>
       <c r="E6" s="1">
         <v>0.5</v>
       </c>
       <c r="F6" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B7">
-        <v>20</v>
+        <v>4</v>
       </c>
       <c r="C7">
         <v>3</v>
       </c>
       <c r="D7">
-        <v>17</v>
+        <v>3.1</v>
       </c>
       <c r="E7" s="1">
         <v>0.55000000000000004</v>
       </c>
       <c r="F7" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B8">
-        <v>70</v>
+        <v>2</v>
       </c>
       <c r="C8">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D8">
-        <v>49</v>
+        <v>0.8</v>
       </c>
       <c r="E8" s="1">
         <v>0.88</v>
       </c>
       <c r="F8" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B9">
-        <v>29</v>
+        <v>4</v>
       </c>
       <c r="C9">
         <v>1</v>
       </c>
       <c r="D9">
-        <v>18</v>
+        <v>1.7</v>
       </c>
       <c r="E9" s="1">
         <v>0.5</v>
       </c>
       <c r="F9" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B10">
-        <v>35</v>
+        <v>3</v>
       </c>
       <c r="C10">
         <v>2</v>
       </c>
       <c r="D10">
-        <v>20</v>
+        <v>1.5</v>
       </c>
       <c r="E10" s="1">
         <v>0.6</v>
       </c>
       <c r="F10" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B11">
-        <v>40</v>
+        <v>5</v>
       </c>
       <c r="C11">
         <v>1</v>
       </c>
       <c r="D11">
-        <v>30</v>
+        <v>2.1</v>
       </c>
       <c r="E11" s="1">
         <v>0.7</v>
       </c>
       <c r="F11" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B12">
-        <v>39</v>
+        <v>3</v>
       </c>
       <c r="C12">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D12">
-        <v>31</v>
+        <v>2.6</v>
       </c>
       <c r="E12" s="1">
         <v>0.8</v>
       </c>
       <c r="F12" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B13">
-        <v>80</v>
+        <v>4</v>
       </c>
       <c r="C13">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="D13">
-        <v>51</v>
+        <v>1.27</v>
       </c>
       <c r="E13" s="1">
         <v>1.1000000000000001</v>
       </c>
       <c r="F13" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B14">
-        <v>69</v>
+        <v>2</v>
       </c>
       <c r="C14">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D14">
-        <v>49</v>
+        <v>3</v>
       </c>
       <c r="E14" s="1">
         <v>1.2</v>
       </c>
       <c r="F14" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
   </sheetData>
